--- a/DNO/checking.xlsx
+++ b/DNO/checking.xlsx
@@ -7,21 +7,69 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Demand Balance" sheetId="1" r:id="rId1"/>
+    <sheet name="Supply" sheetId="1" r:id="rId1"/>
+    <sheet name="Transfers" sheetId="2" r:id="rId2"/>
+    <sheet name="Shipments" sheetId="3" r:id="rId3"/>
+    <sheet name="Demand" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="20">
+  <si>
+    <t>SupplierID</t>
+  </si>
+  <si>
+    <t>FacilityID</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>PurchaseVolumeInKG</t>
+  </si>
+  <si>
+    <t>Supp1</t>
+  </si>
+  <si>
+    <t>Supp2</t>
+  </si>
+  <si>
+    <t>Fac1</t>
+  </si>
+  <si>
+    <t>Fac2</t>
+  </si>
+  <si>
+    <t>Fac3</t>
+  </si>
+  <si>
+    <t>102371 - AU</t>
+  </si>
+  <si>
+    <t>102372 - AU</t>
+  </si>
+  <si>
+    <t>OriginFacID</t>
+  </si>
+  <si>
+    <t>DestinationFacID</t>
+  </si>
+  <si>
+    <t>TransferVolumeInKG</t>
+  </si>
+  <si>
+    <t>ShiptoID</t>
+  </si>
+  <si>
+    <t>DispatchedVolumeInKG</t>
+  </si>
   <si>
     <t>ShipToID</t>
   </si>
   <si>
-    <t>ProductID</t>
-  </si>
-  <si>
     <t>MetDemand</t>
   </si>
   <si>
@@ -29,12 +77,6 @@
   </si>
   <si>
     <t>DemandInKG</t>
-  </si>
-  <si>
-    <t>102371 - AU</t>
-  </si>
-  <si>
-    <t>102372 - AU</t>
   </si>
 </sst>
 </file>
@@ -392,27 +434,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2004</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2002</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>2003</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -420,7 +1215,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -437,7 +1232,7 @@
         <v>2002</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -454,7 +1249,7 @@
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -471,7 +1266,7 @@
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -488,7 +1283,7 @@
         <v>2004</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -505,7 +1300,7 @@
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>14</v>
